--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/10/seed1/result_data_RandomForest.xlsx
@@ -496,10 +496,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.57010000000001</v>
+        <v>-21.51280000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>5.494699999999995</v>
+        <v>5.244699999999995</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.7948</v>
+        <v>13.77330000000001</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.9702</v>
+        <v>4.806799999999999</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.4702</v>
+        <v>-21.4</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.374699999999995</v>
+        <v>4.991499999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.41470000000001</v>
+        <v>13.90620000000001</v>
       </c>
     </row>
     <row r="10">
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.54810000000002</v>
+        <v>-21.43190000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>5.045000000000003</v>
+        <v>4.811600000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.6963</v>
+        <v>12.5787</v>
       </c>
     </row>
     <row r="19">
